--- a/故障报修处理跟进系统/故障报修处理跟进系统开发计划时间表-第二版.xlsx
+++ b/故障报修处理跟进系统/故障报修处理跟进系统开发计划时间表-第二版.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,6 +186,26 @@
   </si>
   <si>
     <t xml:space="preserve">                                            故障报修处理跟进系统开发计划时间表  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张顺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄光辉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016年9月23日10:17:38</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -493,7 +513,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -555,52 +575,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -621,6 +599,15 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -633,12 +620,48 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -919,10 +942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O29"/>
+  <dimension ref="B1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -950,50 +973,50 @@
       <c r="N1" s="22"/>
     </row>
     <row r="2" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="39" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="40"/>
+      <c r="L2" s="26"/>
     </row>
     <row r="3" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="24" t="s">
+      <c r="F3" s="50"/>
+      <c r="G3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="23" t="s">
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="23" t="s">
+      <c r="L3" s="48" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="24"/>
-      <c r="D4" s="23"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="48"/>
       <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1009,15 +1032,15 @@
       <c r="I4" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
     </row>
     <row r="5" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="30">
+      <c r="C5" s="31">
         <v>1</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="46" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="18" t="s">
@@ -1026,105 +1049,105 @@
       <c r="F5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="41">
         <v>42627</v>
       </c>
-      <c r="H5" s="37">
+      <c r="H5" s="44">
         <v>42632</v>
       </c>
-      <c r="I5" s="45">
+      <c r="I5" s="34">
         <v>3</v>
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="6"/>
-      <c r="L5" s="38"/>
+      <c r="L5" s="23"/>
     </row>
     <row r="6" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="31"/>
-      <c r="D6" s="28"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="47"/>
       <c r="E6" s="18" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="49"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="46"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="35"/>
       <c r="J6" s="10"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="35"/>
+      <c r="L6" s="38"/>
     </row>
     <row r="7" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="31"/>
-      <c r="D7" s="28"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="47"/>
       <c r="E7" s="18" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="49"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="46"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="35"/>
       <c r="J7" s="10"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="35"/>
+      <c r="L7" s="38"/>
     </row>
     <row r="8" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="31"/>
-      <c r="D8" s="28"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="47"/>
       <c r="E8" s="18" t="s">
         <v>32</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="49"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="46"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="35"/>
       <c r="J8" s="10"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="35"/>
+      <c r="L8" s="38"/>
     </row>
     <row r="9" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="31"/>
-      <c r="D9" s="28"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="47"/>
       <c r="E9" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="49"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="46"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="35"/>
       <c r="J9" s="10"/>
       <c r="K9" s="6"/>
-      <c r="L9" s="35"/>
+      <c r="L9" s="38"/>
       <c r="O9" s="21"/>
     </row>
     <row r="10" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="32"/>
-      <c r="D10" s="29"/>
+      <c r="D10" s="40"/>
       <c r="E10" s="19" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="50"/>
+      <c r="G10" s="43"/>
       <c r="H10" s="32"/>
-      <c r="I10" s="47"/>
+      <c r="I10" s="36"/>
       <c r="J10" s="11"/>
       <c r="K10" s="6"/>
-      <c r="L10" s="36"/>
+      <c r="L10" s="24"/>
     </row>
     <row r="11" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="30">
+      <c r="C11" s="31">
         <v>3</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="39" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="18" t="s">
@@ -1133,262 +1156,304 @@
       <c r="F11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="34">
+      <c r="G11" s="41">
         <v>42633</v>
       </c>
-      <c r="H11" s="37">
+      <c r="H11" s="44">
         <v>42637</v>
       </c>
-      <c r="I11" s="48">
+      <c r="I11" s="37">
         <v>5</v>
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="38"/>
+      <c r="L11" s="23"/>
     </row>
     <row r="12" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="31"/>
-      <c r="D12" s="28"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="47"/>
       <c r="E12" s="18" t="s">
         <v>21</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="35"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="46"/>
+        <v>15</v>
+      </c>
+      <c r="G12" s="38"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="35"/>
       <c r="J12" s="10"/>
       <c r="K12" s="6"/>
-      <c r="L12" s="35"/>
+      <c r="L12" s="38"/>
     </row>
     <row r="13" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="32"/>
-      <c r="D13" s="29"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="47"/>
       <c r="E13" s="18" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="36"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="10"/>
+        <v>43</v>
+      </c>
+      <c r="G13" s="38"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="K13" s="6"/>
-      <c r="L13" s="36"/>
+      <c r="L13" s="38"/>
     </row>
     <row r="14" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="30">
-        <v>4</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>11</v>
-      </c>
+      <c r="C14" s="45"/>
+      <c r="D14" s="47"/>
       <c r="E14" s="18" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="34">
-        <v>42639</v>
-      </c>
-      <c r="H14" s="37">
-        <v>42640</v>
-      </c>
-      <c r="I14" s="48">
-        <v>2</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G14" s="38"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="35"/>
       <c r="J14" s="10"/>
       <c r="K14" s="6"/>
       <c r="L14" s="38"/>
     </row>
     <row r="15" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="32"/>
-      <c r="D15" s="29"/>
+      <c r="D15" s="40"/>
       <c r="E15" s="18" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="36"/>
+        <v>24</v>
+      </c>
+      <c r="G15" s="24"/>
       <c r="H15" s="32"/>
-      <c r="I15" s="46"/>
+      <c r="I15" s="36"/>
       <c r="J15" s="10"/>
       <c r="K15" s="6"/>
-      <c r="L15" s="36"/>
+      <c r="L15" s="24"/>
     </row>
     <row r="16" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="17">
+      <c r="C16" s="31">
+        <v>4</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="41">
+        <v>42639</v>
+      </c>
+      <c r="H16" s="44">
+        <v>42640</v>
+      </c>
+      <c r="I16" s="37">
+        <v>2</v>
+      </c>
+      <c r="J16" s="10"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="23"/>
+    </row>
+    <row r="17" spans="3:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="32"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="24"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="24"/>
+    </row>
+    <row r="18" spans="3:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="17">
         <v>5</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D18" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E18" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G18" s="8">
         <v>42641</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H18" s="9">
         <v>42641</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I18" s="15">
         <v>1</v>
       </c>
-      <c r="J16" s="12"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="6"/>
-    </row>
-    <row r="17" spans="3:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="30">
+      <c r="J18" s="12"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="3:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="31">
         <v>6</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D19" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E19" s="19" t="s">
         <v>27</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="34">
-        <v>42642</v>
-      </c>
-      <c r="H17" s="37">
-        <v>42643</v>
-      </c>
-      <c r="I17" s="48">
-        <v>2</v>
-      </c>
-      <c r="J17" s="13"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="38"/>
-    </row>
-    <row r="18" spans="3:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="32"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="36"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="36"/>
-    </row>
-    <row r="19" spans="3:12" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="17">
-        <v>7</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>34</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="41">
+        <v>42642</v>
+      </c>
+      <c r="H19" s="44">
         <v>42643</v>
       </c>
-      <c r="H19" s="9">
+      <c r="I19" s="37">
+        <v>2</v>
+      </c>
+      <c r="J19" s="13"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="23"/>
+    </row>
+    <row r="20" spans="3:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="32"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="24"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="24"/>
+    </row>
+    <row r="21" spans="3:12" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="17">
+        <v>7</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="8">
         <v>42643</v>
       </c>
-      <c r="I19" s="16">
+      <c r="H21" s="9">
+        <v>42643</v>
+      </c>
+      <c r="I21" s="16">
         <v>1</v>
       </c>
-      <c r="J19" s="12"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="6"/>
-    </row>
-    <row r="20" spans="3:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="43" t="s">
+      <c r="J21" s="12"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="6"/>
+    </row>
+    <row r="22" spans="3:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="44"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
+      <c r="D22" s="30"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C23" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="E21" t="s">
+      <c r="D23" s="52"/>
+      <c r="E23" s="52" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="E23" s="1"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="E27" s="1"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="53"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="E25" s="1"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="E29" s="1"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C20:L20"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="I5:I10"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="L5:L10"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="G5:G10"/>
-    <mergeCell ref="H5:H10"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="D5:D10"/>
-    <mergeCell ref="C5:C10"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="D14:D15"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D10"/>
+    <mergeCell ref="C5:C10"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="G11:G15"/>
+    <mergeCell ref="H11:H15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C22:L22"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="I5:I10"/>
+    <mergeCell ref="I11:I15"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="L5:L10"/>
+    <mergeCell ref="L11:L15"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="G5:G10"/>
+    <mergeCell ref="H5:H10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
